--- a/Siati/inventarios_generados/Entrega_CALLCENTER-19.xlsx
+++ b/Siati/inventarios_generados/Entrega_CALLCENTER-19.xlsx
@@ -2733,7 +2733,7 @@
       <c r="Q9" s="231" t="n"/>
       <c r="R9" s="232" t="inlineStr">
         <is>
-          <t>10:10</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="S9" s="233" t="n"/>

--- a/Siati/inventarios_generados/Entrega_CALLCENTER-19.xlsx
+++ b/Siati/inventarios_generados/Entrega_CALLCENTER-19.xlsx
@@ -2733,7 +2733,7 @@
       <c r="Q9" s="231" t="n"/>
       <c r="R9" s="232" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="S9" s="233" t="n"/>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="B22" s="267" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Teclado</t>
         </is>
       </c>
       <c r="C22" s="252" t="n"/>
@@ -3121,11 +3121,15 @@
       <c r="J22" s="253" t="n"/>
       <c r="K22" s="267" t="inlineStr">
         <is>
-          <t>Asus Computer Inc.</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="L22" s="253" t="n"/>
-      <c r="M22" s="267" t="inlineStr"/>
+      <c r="M22" s="267" t="inlineStr">
+        <is>
+          <t>Standard PS/2 Keyboard</t>
+        </is>
+      </c>
       <c r="N22" s="253" t="n"/>
       <c r="O22" s="268" t="inlineStr"/>
       <c r="P22" s="253" t="n"/>
@@ -3142,7 +3146,7 @@
       </c>
       <c r="B23" s="267" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Mouse</t>
         </is>
       </c>
       <c r="C23" s="252" t="n"/>
@@ -3152,20 +3156,20 @@
       <c r="G23" s="267" t="n"/>
       <c r="H23" s="267" t="inlineStr">
         <is>
-          <t>En funcionamiento / Regular</t>
+          <t>En funcionamiento</t>
         </is>
       </c>
       <c r="I23" s="252" t="n"/>
       <c r="J23" s="253" t="n"/>
       <c r="K23" s="267" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Pointing</t>
         </is>
       </c>
       <c r="L23" s="253" t="n"/>
       <c r="M23" s="267" t="inlineStr">
         <is>
-          <t>SAMSUNG</t>
+          <t>HID-compliant mouse</t>
         </is>
       </c>
       <c r="N23" s="253" t="n"/>

--- a/Siati/inventarios_generados/Entrega_CALLCENTER-19.xlsx
+++ b/Siati/inventarios_generados/Entrega_CALLCENTER-19.xlsx
@@ -2733,7 +2733,7 @@
       <c r="Q9" s="231" t="n"/>
       <c r="R9" s="232" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="S9" s="233" t="n"/>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="B21" s="267" t="inlineStr">
         <is>
-          <t>PC Escritorio/Laptop</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="C21" s="252" t="n"/>
